--- a/รวม Final ก่อนส่ง/CEPP64-8 Ganttchart.xlsx
+++ b/รวม Final ก่อนส่ง/CEPP64-8 Ganttchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\งาน\มหาลัย\project\prepro\CEPP64-08\รวม Final ก่อนส่ง\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60E9C4-22B1-43C3-A45D-C848B454BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29486E49-4549-4D9F-ADC3-1AE0D5AF7AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5DFEEF38-22E1-46A6-85DE-7F6E9421AE80}"/>
   </bookViews>
@@ -1341,7 +1341,7 @@
   </sheetPr>
   <dimension ref="A1:AK65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -4013,6 +4013,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074C886D97DC2CA43A3C320BBEBDF10BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d2152290d9fcc0329f5ae5ab4ff8c314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44578a0e-d2a4-4569-89a6-913d1072a7e5" xmlns:ns4="a18590ec-63de-4bfb-82c4-ae33370569f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2a8b9a552455b1f3bf67fd0ee4a1fd6" ns3:_="" ns4:_="">
     <xsd:import namespace="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
@@ -4223,12 +4229,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4239,6 +4239,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7F0AD5-1A26-430D-B67B-32AFEFB130AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{358146A0-9FC8-4F92-ADA6-18EAF97F1F1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4257,23 +4274,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7F0AD5-1A26-430D-B67B-32AFEFB130AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="44578a0e-d2a4-4569-89a6-913d1072a7e5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a18590ec-63de-4bfb-82c4-ae33370569f5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{808AABF7-C13F-4102-A98F-1EFAB6F0477F}">
   <ds:schemaRefs>
